--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3285.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3285.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.858694469395434</v>
+        <v>1.309165477752686</v>
       </c>
       <c r="B1">
-        <v>2.034230967502885</v>
+        <v>3.289761781692505</v>
       </c>
       <c r="C1">
-        <v>4.201345615307084</v>
+        <v>2.600979328155518</v>
       </c>
       <c r="D1">
-        <v>3.027674186490686</v>
+        <v>1.358297944068909</v>
       </c>
       <c r="E1">
-        <v>1.335768619569659</v>
+        <v>1.00533127784729</v>
       </c>
     </row>
   </sheetData>
